--- a/ArticleManage/main_working_folder/output_folders/Data 124 Steam and KOH Activated/Data124_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 124 Steam and KOH Activated/Data124_all_graphs_excel.xlsx
@@ -5,11 +5,11 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="KKSN" sheetId="1" r:id="rId1"/>
-    <sheet name="KN" sheetId="2" r:id="rId4"/>
-    <sheet name="KSN" sheetId="3" r:id="rId5"/>
-    <sheet name="YKN" sheetId="4" r:id="rId6"/>
-    <sheet name="YKSN" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 1_1 KKSN  0-1-0-300 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1_1 KN  0-1-0-300 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1_1 KSN  0-1-0-300 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1_1 YKN  0-1-0-300 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1_1 YKSN  0-1-0-300 " sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -113,7 +113,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki KKSN</a:t>
+              <a:t>Izoterma adsorpcji probki KKSN z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -172,12 +172,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>KKSN!$A$3:$A$50</c:f>
+              <c:f>'Figure 1_1 KKSN  0-1-0-300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>KKSN!$B$3:$B$50</c:f>
+              <c:f>'Figure 1_1 KKSN  0-1-0-300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -190,6 +190,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -259,6 +261,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -423,7 +427,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki KN</a:t>
+              <a:t>Izoterma adsorpcji probki KN z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -482,12 +486,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>KN!$A$3:$A$50</c:f>
+              <c:f>'Figure 1_1 KN  0-1-0-300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>KN!$B$3:$B$50</c:f>
+              <c:f>'Figure 1_1 KN  0-1-0-300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -500,6 +504,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -569,6 +575,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -733,7 +741,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki KSN</a:t>
+              <a:t>Izoterma adsorpcji probki KSN z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -792,12 +800,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>KSN!$A$3:$A$50</c:f>
+              <c:f>'Figure 1_1 KSN  0-1-0-300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>KSN!$B$3:$B$50</c:f>
+              <c:f>'Figure 1_1 KSN  0-1-0-300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -810,6 +818,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -879,6 +889,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1043,7 +1055,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki YKN</a:t>
+              <a:t>Izoterma adsorpcji probki YKN z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1102,12 +1114,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>YKN!$A$3:$A$50</c:f>
+              <c:f>'Figure 1_1 YKN  0-1-0-300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>YKN!$B$3:$B$50</c:f>
+              <c:f>'Figure 1_1 YKN  0-1-0-300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1120,6 +1132,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1189,6 +1203,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1353,7 +1369,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki YKSN</a:t>
+              <a:t>Izoterma adsorpcji probki YKSN z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1412,12 +1428,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>YKSN!$A$3:$A$50</c:f>
+              <c:f>'Figure 1_1 YKSN  0-1-0-300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>YKSN!$B$3:$B$50</c:f>
+              <c:f>'Figure 1_1 YKSN  0-1-0-300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1430,6 +1446,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1499,6 +1517,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 124 Steam and KOH Activated/Data124_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 124 Steam and KOH Activated/Data124_all_graphs_excel.xlsx
@@ -5,26 +5,50 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1_1 KKSN  0-1-0-300 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1_1 KN  0-1-0-300 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1_1 KSN  0-1-0-300 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1_1 YKN  0-1-0-300 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 1_1 YKSN  0-1-0-300 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 1 KOH2  0&amp;1&amp;0&amp;325 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 KOH3  0&amp;1&amp;0&amp;325 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 KOHKN3  0&amp;1&amp;0&amp;325 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 KOHKS3  0&amp;1&amp;0&amp;325 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1 KOHS2  0&amp;1&amp;0&amp;325 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 1 KOHS3  0&amp;1&amp;0&amp;325 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 1_1 KKSN  0&amp;1&amp;0&amp;300 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 1_1 KN  0&amp;1&amp;0&amp;300 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 1_1 KSN  0&amp;1&amp;0&amp;300 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 1_1 YKN  0&amp;1&amp;0&amp;300 " sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 1_1 YKSN  0&amp;1&amp;0&amp;300 " sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>KKSN</t>
+    <t>KOH2</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>KOH3</t>
+  </si>
+  <si>
+    <t>KOHKN3</t>
+  </si>
+  <si>
+    <t>KOHKS3</t>
+  </si>
+  <si>
+    <t>KOHS2</t>
+  </si>
+  <si>
+    <t>KOHS3</t>
+  </si>
+  <si>
+    <t>KKSN</t>
   </si>
   <si>
     <t>KN</t>
@@ -113,7 +137,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki KKSN z wykresu 'Figure 1_1' </a:t>
+              <a:t>Izoterma adsorpcji probki KOH2 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -172,12 +196,640 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1_1 KKSN  0-1-0-300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 KOH2  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1_1 KKSN  0-1-0-300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 KOH2  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="325"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki YKN z wykresu 'Figure 1_1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1_1 YKN  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1_1 YKN  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki YKSN z wykresu 'Figure 1_1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1_1 YKSN  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1_1 YKSN  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -427,7 +1079,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki KN z wykresu 'Figure 1_1' </a:t>
+              <a:t>Izoterma adsorpcji probki KOH3 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -486,12 +1138,1582 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1_1 KN  0-1-0-300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 KOH3  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1_1 KN  0-1-0-300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 KOH3  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="325"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki KOHKN3 z wykresu 'Figure 1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1 KOHKN3  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1 KOHKN3  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="325"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki KOHKS3 z wykresu 'Figure 1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1 KOHKS3  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1 KOHKS3  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="325"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki KOHS2 z wykresu 'Figure 1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1 KOHS2  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1 KOHS2  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="325"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki KOHS3 z wykresu 'Figure 1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1 KOHS3  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1 KOHS3  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="325"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki KKSN z wykresu 'Figure 1_1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1_1 KKSN  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1_1 KKSN  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -708,7 +2930,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -741,7 +2963,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki KSN z wykresu 'Figure 1_1' </a:t>
+              <a:t>Izoterma adsorpcji probki KN z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -800,12 +3022,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1_1 KSN  0-1-0-300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 KN  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1_1 KSN  0-1-0-300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 KN  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1022,7 +3244,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1055,7 +3277,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki YKN z wykresu 'Figure 1_1' </a:t>
+              <a:t>Izoterma adsorpcji probki KSN z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1114,326 +3336,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1_1 YKN  0-1-0-300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 KSN  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1_1 YKN  0-1-0-300 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="300"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki YKSN z wykresu 'Figure 1_1' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 1_1 YKSN  0-1-0-300 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 1_1 YKSN  0-1-0-300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 KSN  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1690,6 +3598,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1850,6 +3838,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -2371,7 +4519,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2892,7 +5040,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3413,7 +5561,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3934,7 +6082,3133 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4473,6 +9747,76 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4613,6 +9957,146 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4927,7 +10411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4948,10 +10432,198 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0489</v>
+        <v>0.9946</v>
       </c>
       <c r="B3" s="0">
-        <v>235.17</v>
+        <v>97.6467</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9486</v>
+      </c>
+      <c r="B4" s="0">
+        <v>96.3894</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.8978</v>
+      </c>
+      <c r="B5" s="0">
+        <v>95.9703</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8487</v>
+      </c>
+      <c r="B6" s="0">
+        <v>95.5513</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.797</v>
+      </c>
+      <c r="B7" s="0">
+        <v>95.3417</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.7502</v>
+      </c>
+      <c r="B8" s="0">
+        <v>94.0845</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7007</v>
+      </c>
+      <c r="B9" s="0">
+        <v>94.294</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.6525</v>
+      </c>
+      <c r="B10" s="0">
+        <v>93.2463</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.5995</v>
+      </c>
+      <c r="B11" s="0">
+        <v>92.8272</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5505</v>
+      </c>
+      <c r="B12" s="0">
+        <v>91.7795</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.4988</v>
+      </c>
+      <c r="B13" s="0">
+        <v>91.57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.4493</v>
+      </c>
+      <c r="B14" s="0">
+        <v>90.7318</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4002</v>
+      </c>
+      <c r="B15" s="0">
+        <v>90.7318</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3503</v>
+      </c>
+      <c r="B16" s="0">
+        <v>88.2173</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.299</v>
+      </c>
+      <c r="B17" s="0">
+        <v>87.3791</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="B18" s="0">
+        <v>85.7028</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.1983</v>
+      </c>
+      <c r="B19" s="0">
+        <v>83.8169</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.1519</v>
+      </c>
+      <c r="B20" s="0">
+        <v>81.5119</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0976</v>
+      </c>
+      <c r="B21" s="0">
+        <v>77.9497</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0498</v>
+      </c>
+      <c r="B22" s="0">
+        <v>72.0825</v>
+      </c>
+    </row>
+    <row r="23"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0478</v>
+      </c>
+      <c r="B3" s="0">
+        <v>48.4652</v>
       </c>
     </row>
     <row r="4">
@@ -4959,98 +10631,342 @@
         <v>0.0984</v>
       </c>
       <c r="B4" s="0">
-        <v>248.0644</v>
+        <v>51.3896</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1513</v>
+        <v>0.148</v>
       </c>
       <c r="B5" s="0">
-        <v>252.526</v>
+        <v>52.3227</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1986</v>
+        <v>0.1997</v>
       </c>
       <c r="B6" s="0">
-        <v>257.2243</v>
+        <v>53.3477</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.2503</v>
+        <v>0.2481</v>
       </c>
       <c r="B7" s="0">
-        <v>259.968</v>
+        <v>54.7757</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.2998</v>
+        <v>0.2976</v>
       </c>
       <c r="B8" s="0">
-        <v>262.9129</v>
+        <v>55.6222</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.4</v>
+        <v>0.3483</v>
       </c>
       <c r="B9" s="0">
-        <v>267.4935</v>
+        <v>55.8018</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.5012</v>
+        <v>0.3978</v>
       </c>
       <c r="B10" s="0">
-        <v>272.2982</v>
+        <v>56.084</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6003</v>
+        <v>0.4495</v>
       </c>
       <c r="B11" s="0">
-        <v>277.0268</v>
+        <v>57.171</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.6993</v>
+        <v>0.4979</v>
       </c>
       <c r="B12" s="0">
-        <v>284.5685</v>
+        <v>57.7097</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.8017</v>
+        <v>0.5474</v>
       </c>
       <c r="B13" s="0">
-        <v>294.5883</v>
+        <v>58.5124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.9007</v>
+        <v>0.5981</v>
       </c>
       <c r="B14" s="0">
-        <v>309.6874</v>
+        <v>58.1618</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
+        <v>0.6476</v>
+      </c>
+      <c r="B15" s="0">
+        <v>59.4604</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.6982</v>
+      </c>
+      <c r="B16" s="0">
+        <v>59.034</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.7477</v>
+      </c>
+      <c r="B17" s="0">
+        <v>59.3931</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.7984</v>
+      </c>
+      <c r="B18" s="0">
+        <v>60.7014</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.8479</v>
+      </c>
+      <c r="B19" s="0">
+        <v>60.9643</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.8985</v>
+      </c>
+      <c r="B20" s="0">
+        <v>62.008</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.948</v>
+      </c>
+      <c r="B21" s="0">
+        <v>62.8562</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.9942</v>
+      </c>
+      <c r="B22" s="0">
+        <v>65.0879</v>
+      </c>
+    </row>
+    <row r="23"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0494</v>
+      </c>
+      <c r="B3" s="0">
+        <v>65.7534</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0989</v>
+      </c>
+      <c r="B4" s="0">
+        <v>70.3196</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.153</v>
+      </c>
+      <c r="B5" s="0">
+        <v>73.0594</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.2006</v>
+      </c>
+      <c r="B6" s="0">
+        <v>74.4292</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="B7" s="0">
+        <v>76.7123</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.3013</v>
+      </c>
+      <c r="B8" s="0">
+        <v>77.6256</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.3498</v>
+      </c>
+      <c r="B9" s="0">
+        <v>78.5388</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.3993</v>
+      </c>
+      <c r="B10" s="0">
+        <v>79.4521</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.4552</v>
+      </c>
+      <c r="B11" s="0">
+        <v>79.9087</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5037</v>
+      </c>
+      <c r="B12" s="0">
+        <v>81.7352</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.5522</v>
+      </c>
+      <c r="B13" s="0">
+        <v>82.6484</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.6045</v>
+      </c>
+      <c r="B14" s="0">
+        <v>84.4749</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.6493</v>
+      </c>
+      <c r="B15" s="0">
+        <v>85.8447</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.6978</v>
+      </c>
+      <c r="B16" s="0">
+        <v>86.3014</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.7556</v>
+      </c>
+      <c r="B17" s="0">
+        <v>86.3014</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.8041</v>
+      </c>
+      <c r="B18" s="0">
+        <v>89.0411</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.8479</v>
+      </c>
+      <c r="B19" s="0">
+        <v>89.4977</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.9049</v>
+      </c>
+      <c r="B20" s="0">
+        <v>89.9543</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.9524</v>
+      </c>
+      <c r="B21" s="0">
+        <v>91.3242</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
         <v>0.9953</v>
       </c>
-      <c r="B15" s="0">
-        <v>319.4222</v>
-      </c>
-    </row>
-    <row r="16"/>
+      <c r="B22" s="0">
+        <v>93.6073</v>
+      </c>
+    </row>
+    <row r="23"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5080,162 +10996,162 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0504</v>
+        <v>0.9954</v>
       </c>
       <c r="B3" s="0">
-        <v>70.7763</v>
+        <v>109.381</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0989</v>
+        <v>0.9561</v>
       </c>
       <c r="B4" s="0">
-        <v>75.3425</v>
+        <v>108.5429</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1483</v>
+        <v>0.9018</v>
       </c>
       <c r="B5" s="0">
-        <v>77.6256</v>
+        <v>107.4952</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1996</v>
+        <v>0.8501</v>
       </c>
       <c r="B6" s="0">
-        <v>79.4521</v>
+        <v>106.0284</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.25</v>
+        <v>0.8006</v>
       </c>
       <c r="B7" s="0">
-        <v>81.7352</v>
+        <v>106.2379</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.3032</v>
+        <v>0.7493</v>
       </c>
       <c r="B8" s="0">
-        <v>82.6484</v>
+        <v>106.657</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.3517</v>
+        <v>0.7025</v>
       </c>
       <c r="B9" s="0">
-        <v>83.5616</v>
+        <v>105.6093</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.4021</v>
+        <v>0.6477</v>
       </c>
       <c r="B10" s="0">
-        <v>84.9315</v>
+        <v>105.1902</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.4496</v>
+        <v>0.5986</v>
       </c>
       <c r="B11" s="0">
-        <v>86.758</v>
+        <v>104.1425</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5</v>
+        <v>0.5487</v>
       </c>
       <c r="B12" s="0">
-        <v>87.6712</v>
+        <v>104.352</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5504</v>
+        <v>0.501</v>
       </c>
       <c r="B13" s="0">
-        <v>87.2146</v>
+        <v>104.352</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.6007</v>
+        <v>0.4501</v>
       </c>
       <c r="B14" s="0">
-        <v>89.0411</v>
+        <v>103.3043</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.6521</v>
+        <v>0.4015</v>
       </c>
       <c r="B15" s="0">
-        <v>89.4977</v>
+        <v>102.6757</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.7024</v>
+        <v>0.3494</v>
       </c>
       <c r="B16" s="0">
-        <v>91.3242</v>
+        <v>101.8375</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.7519</v>
+        <v>0.3003</v>
       </c>
       <c r="B17" s="0">
-        <v>92.2374</v>
+        <v>100.5803</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.805</v>
+        <v>0.2513</v>
       </c>
       <c r="B18" s="0">
-        <v>94.0639</v>
+        <v>99.9516</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.8517</v>
+        <v>0.1992</v>
       </c>
       <c r="B19" s="0">
-        <v>94.0639</v>
+        <v>98.0658</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.9002</v>
+        <v>0.1506</v>
       </c>
       <c r="B20" s="0">
-        <v>95.8904</v>
+        <v>97.0181</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.9534</v>
+        <v>0.1006</v>
       </c>
       <c r="B21" s="0">
-        <v>95.8904</v>
+        <v>94.7131</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.9953</v>
+        <v>0.0498</v>
       </c>
       <c r="B22" s="0">
-        <v>99.5434</v>
+        <v>90.5222</v>
       </c>
     </row>
     <row r="23"/>
@@ -5247,7 +11163,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5268,165 +11184,109 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9944</v>
+        <v>0.9015</v>
       </c>
       <c r="B3" s="0">
-        <v>205.0228</v>
+        <v>296.7118</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9487</v>
+        <v>0.8012</v>
       </c>
       <c r="B4" s="0">
-        <v>191.3242</v>
+        <v>295.245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8974</v>
+        <v>0.6996</v>
       </c>
       <c r="B5" s="0">
-        <v>189.9543</v>
+        <v>295.0355</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.847</v>
+        <v>0.5997</v>
       </c>
       <c r="B6" s="0">
-        <v>188.5845</v>
+        <v>292.3114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7976</v>
+        <v>0.5025</v>
       </c>
       <c r="B7" s="0">
-        <v>189.4977</v>
+        <v>290.8446</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7491</v>
+        <v>0.4022</v>
       </c>
       <c r="B8" s="0">
-        <v>187.2146</v>
+        <v>288.5397</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6987</v>
+        <v>0.301</v>
       </c>
       <c r="B9" s="0">
-        <v>186.758</v>
+        <v>286.8633</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6483</v>
+        <v>0.2502</v>
       </c>
       <c r="B10" s="0">
-        <v>184.9315</v>
+        <v>284.7679</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5989</v>
+        <v>0.1998</v>
       </c>
       <c r="B11" s="0">
-        <v>184.9315</v>
+        <v>283.0916</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5504</v>
+        <v>0.1494</v>
       </c>
       <c r="B12" s="0">
-        <v>183.105</v>
+        <v>280.577</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4972</v>
+        <v>0.1035</v>
       </c>
       <c r="B13" s="0">
-        <v>182.6484</v>
+        <v>275.7576</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4478</v>
+        <v>0.0783</v>
       </c>
       <c r="B14" s="0">
-        <v>180.3653</v>
+        <v>276.5957</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3983</v>
+        <v>0.0487</v>
       </c>
       <c r="B15" s="0">
-        <v>178.9954</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3489</v>
-      </c>
-      <c r="B16" s="0">
-        <v>177.6256</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.2985</v>
-      </c>
-      <c r="B17" s="0">
-        <v>176.7123</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.2519</v>
-      </c>
-      <c r="B18" s="0">
-        <v>175.3425</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.1978</v>
-      </c>
-      <c r="B19" s="0">
-        <v>173.0594</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.1493</v>
-      </c>
-      <c r="B20" s="0">
-        <v>170.7763</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.0979</v>
-      </c>
-      <c r="B21" s="0">
-        <v>167.5799</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.0485</v>
-      </c>
-      <c r="B22" s="0">
-        <v>160.274</v>
-      </c>
-    </row>
-    <row r="23"/>
+        <v>273.2431</v>
+      </c>
+    </row>
+    <row r="16"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5456,162 +11316,162 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0478</v>
+        <v>0.9953</v>
       </c>
       <c r="B3" s="0">
-        <v>48.4652</v>
+        <v>200.951</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0984</v>
+        <v>0.9489</v>
       </c>
       <c r="B4" s="0">
-        <v>51.3896</v>
+        <v>198.8556</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.148</v>
+        <v>0.9012</v>
       </c>
       <c r="B5" s="0">
-        <v>52.3227</v>
+        <v>196.9697</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1997</v>
+        <v>0.8495</v>
       </c>
       <c r="B6" s="0">
-        <v>53.3477</v>
+        <v>196.9697</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.2481</v>
+        <v>0.7996</v>
       </c>
       <c r="B7" s="0">
-        <v>54.7757</v>
+        <v>196.5506</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.2976</v>
+        <v>0.7492</v>
       </c>
       <c r="B8" s="0">
-        <v>55.6222</v>
+        <v>196.1315</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.3483</v>
+        <v>0.701</v>
       </c>
       <c r="B9" s="0">
-        <v>55.8018</v>
+        <v>195.0838</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.3978</v>
+        <v>0.6524</v>
       </c>
       <c r="B10" s="0">
-        <v>56.084</v>
+        <v>194.0361</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.4495</v>
+        <v>0.6034</v>
       </c>
       <c r="B11" s="0">
-        <v>57.171</v>
+        <v>192.7789</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.4979</v>
+        <v>0.5486</v>
       </c>
       <c r="B12" s="0">
-        <v>57.7097</v>
+        <v>191.5216</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5474</v>
+        <v>0.4995</v>
       </c>
       <c r="B13" s="0">
-        <v>58.5124</v>
+        <v>190.2643</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5981</v>
+        <v>0.45</v>
       </c>
       <c r="B14" s="0">
-        <v>58.1618</v>
+        <v>189.0071</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.6476</v>
+        <v>0.4005</v>
       </c>
       <c r="B15" s="0">
-        <v>59.4604</v>
+        <v>187.9594</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.6982</v>
+        <v>0.3493</v>
       </c>
       <c r="B16" s="0">
-        <v>59.034</v>
+        <v>186.9117</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.7477</v>
+        <v>0.2976</v>
       </c>
       <c r="B17" s="0">
-        <v>59.3931</v>
+        <v>184.1876</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.7984</v>
+        <v>0.2485</v>
       </c>
       <c r="B18" s="0">
-        <v>60.7014</v>
+        <v>182.3017</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.8479</v>
+        <v>0.2008</v>
       </c>
       <c r="B19" s="0">
-        <v>60.9643</v>
+        <v>179.9968</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.8985</v>
+        <v>0.15</v>
       </c>
       <c r="B20" s="0">
-        <v>62.008</v>
+        <v>175.5964</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.948</v>
+        <v>0.101</v>
       </c>
       <c r="B21" s="0">
-        <v>62.8562</v>
+        <v>169.9387</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.9942</v>
+        <v>0.0479</v>
       </c>
       <c r="B22" s="0">
-        <v>65.0879</v>
+        <v>159.2521</v>
       </c>
     </row>
     <row r="23"/>
@@ -5623,6 +11483,186 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9485</v>
+      </c>
+      <c r="B3" s="0">
+        <v>159.2521</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.899</v>
+      </c>
+      <c r="B4" s="0">
+        <v>157.7853</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.85</v>
+      </c>
+      <c r="B5" s="0">
+        <v>156.9471</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.7978</v>
+      </c>
+      <c r="B6" s="0">
+        <v>155.4803</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.751</v>
+      </c>
+      <c r="B7" s="0">
+        <v>154.2231</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.6997</v>
+      </c>
+      <c r="B8" s="0">
+        <v>152.9658</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.6494</v>
+      </c>
+      <c r="B9" s="0">
+        <v>151.9181</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.6012</v>
+      </c>
+      <c r="B10" s="0">
+        <v>151.2895</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.5486</v>
+      </c>
+      <c r="B11" s="0">
+        <v>149.6132</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5005</v>
+      </c>
+      <c r="B12" s="0">
+        <v>148.775</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.4505</v>
+      </c>
+      <c r="B13" s="0">
+        <v>147.5177</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.4006</v>
+      </c>
+      <c r="B14" s="0">
+        <v>145.2128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3524</v>
+      </c>
+      <c r="B15" s="0">
+        <v>143.9555</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.2999</v>
+      </c>
+      <c r="B16" s="0">
+        <v>141.8601</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.2512</v>
+      </c>
+      <c r="B17" s="0">
+        <v>139.5551</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.1991</v>
+      </c>
+      <c r="B18" s="0">
+        <v>136.6215</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.1501</v>
+      </c>
+      <c r="B19" s="0">
+        <v>132.2211</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.0984</v>
+      </c>
+      <c r="B20" s="0">
+        <v>126.354</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0493</v>
+      </c>
+      <c r="B21" s="0">
+        <v>116.9246</v>
+      </c>
+    </row>
+    <row r="22"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5631,7 +11671,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
@@ -5644,10 +11684,330 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0494</v>
+        <v>0.9927</v>
       </c>
       <c r="B3" s="0">
-        <v>65.7534</v>
+        <v>169.3101</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9467</v>
+      </c>
+      <c r="B4" s="0">
+        <v>165.1193</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.899</v>
+      </c>
+      <c r="B5" s="0">
+        <v>163.4429</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8491</v>
+      </c>
+      <c r="B6" s="0">
+        <v>161.9761</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.7956</v>
+      </c>
+      <c r="B7" s="0">
+        <v>161.138</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.7483</v>
+      </c>
+      <c r="B8" s="0">
+        <v>159.6712</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.6971</v>
+      </c>
+      <c r="B9" s="0">
+        <v>158.4139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.6547</v>
+      </c>
+      <c r="B10" s="0">
+        <v>157.3662</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.5994</v>
+      </c>
+      <c r="B11" s="0">
+        <v>156.3185</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5477</v>
+      </c>
+      <c r="B12" s="0">
+        <v>155.2708</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.4991</v>
+      </c>
+      <c r="B13" s="0">
+        <v>154.0135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.4492</v>
+      </c>
+      <c r="B14" s="0">
+        <v>152.7563</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4006</v>
+      </c>
+      <c r="B15" s="0">
+        <v>151.499</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3507</v>
+      </c>
+      <c r="B16" s="0">
+        <v>150.0322</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.2985</v>
+      </c>
+      <c r="B17" s="0">
+        <v>148.1464</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.2504</v>
+      </c>
+      <c r="B18" s="0">
+        <v>146.8891</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.1973</v>
+      </c>
+      <c r="B19" s="0">
+        <v>143.3269</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.1496</v>
+      </c>
+      <c r="B20" s="0">
+        <v>139.7647</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0966</v>
+      </c>
+      <c r="B21" s="0">
+        <v>134.3166</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0467</v>
+      </c>
+      <c r="B22" s="0">
+        <v>124.6776</v>
+      </c>
+    </row>
+    <row r="23"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0489</v>
+      </c>
+      <c r="B3" s="0">
+        <v>235.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0984</v>
+      </c>
+      <c r="B4" s="0">
+        <v>248.0644</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.1513</v>
+      </c>
+      <c r="B5" s="0">
+        <v>252.526</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.1986</v>
+      </c>
+      <c r="B6" s="0">
+        <v>257.2243</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.2503</v>
+      </c>
+      <c r="B7" s="0">
+        <v>259.968</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.2998</v>
+      </c>
+      <c r="B8" s="0">
+        <v>262.9129</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.4</v>
+      </c>
+      <c r="B9" s="0">
+        <v>267.4935</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.5012</v>
+      </c>
+      <c r="B10" s="0">
+        <v>272.2982</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.6003</v>
+      </c>
+      <c r="B11" s="0">
+        <v>277.0268</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.6993</v>
+      </c>
+      <c r="B12" s="0">
+        <v>284.5685</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.8017</v>
+      </c>
+      <c r="B13" s="0">
+        <v>294.5883</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.9007</v>
+      </c>
+      <c r="B14" s="0">
+        <v>309.6874</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.9953</v>
+      </c>
+      <c r="B15" s="0">
+        <v>319.4222</v>
+      </c>
+    </row>
+    <row r="16"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0504</v>
+      </c>
+      <c r="B3" s="0">
+        <v>70.7763</v>
       </c>
     </row>
     <row r="4">
@@ -5655,23 +12015,23 @@
         <v>0.0989</v>
       </c>
       <c r="B4" s="0">
-        <v>70.3196</v>
+        <v>75.3425</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.153</v>
+        <v>0.1483</v>
       </c>
       <c r="B5" s="0">
-        <v>73.0594</v>
+        <v>77.6256</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.2006</v>
+        <v>0.1996</v>
       </c>
       <c r="B6" s="0">
-        <v>74.4292</v>
+        <v>79.4521</v>
       </c>
     </row>
     <row r="7">
@@ -5679,119 +12039,119 @@
         <v>0.25</v>
       </c>
       <c r="B7" s="0">
-        <v>76.7123</v>
+        <v>81.7352</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.3013</v>
+        <v>0.3032</v>
       </c>
       <c r="B8" s="0">
-        <v>77.6256</v>
+        <v>82.6484</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.3498</v>
+        <v>0.3517</v>
       </c>
       <c r="B9" s="0">
-        <v>78.5388</v>
+        <v>83.5616</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.3993</v>
+        <v>0.4021</v>
       </c>
       <c r="B10" s="0">
-        <v>79.4521</v>
+        <v>84.9315</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.4552</v>
+        <v>0.4496</v>
       </c>
       <c r="B11" s="0">
-        <v>79.9087</v>
+        <v>86.758</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5037</v>
+        <v>0.5</v>
       </c>
       <c r="B12" s="0">
-        <v>81.7352</v>
+        <v>87.6712</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5522</v>
+        <v>0.5504</v>
       </c>
       <c r="B13" s="0">
-        <v>82.6484</v>
+        <v>87.2146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.6045</v>
+        <v>0.6007</v>
       </c>
       <c r="B14" s="0">
-        <v>84.4749</v>
+        <v>89.0411</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.6493</v>
+        <v>0.6521</v>
       </c>
       <c r="B15" s="0">
-        <v>85.8447</v>
+        <v>89.4977</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.6978</v>
+        <v>0.7024</v>
       </c>
       <c r="B16" s="0">
-        <v>86.3014</v>
+        <v>91.3242</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.7556</v>
+        <v>0.7519</v>
       </c>
       <c r="B17" s="0">
-        <v>86.3014</v>
+        <v>92.2374</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.8041</v>
+        <v>0.805</v>
       </c>
       <c r="B18" s="0">
-        <v>89.0411</v>
+        <v>94.0639</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.8479</v>
+        <v>0.8517</v>
       </c>
       <c r="B19" s="0">
-        <v>89.4977</v>
+        <v>94.0639</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.9049</v>
+        <v>0.9002</v>
       </c>
       <c r="B20" s="0">
-        <v>89.9543</v>
+        <v>95.8904</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.9524</v>
+        <v>0.9534</v>
       </c>
       <c r="B21" s="0">
-        <v>91.3242</v>
+        <v>95.8904</v>
       </c>
     </row>
     <row r="22">
@@ -5799,7 +12159,195 @@
         <v>0.9953</v>
       </c>
       <c r="B22" s="0">
-        <v>93.6073</v>
+        <v>99.5434</v>
+      </c>
+    </row>
+    <row r="23"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9944</v>
+      </c>
+      <c r="B3" s="0">
+        <v>205.0228</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9487</v>
+      </c>
+      <c r="B4" s="0">
+        <v>191.3242</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.8974</v>
+      </c>
+      <c r="B5" s="0">
+        <v>189.9543</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.847</v>
+      </c>
+      <c r="B6" s="0">
+        <v>188.5845</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.7976</v>
+      </c>
+      <c r="B7" s="0">
+        <v>189.4977</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.7491</v>
+      </c>
+      <c r="B8" s="0">
+        <v>187.2146</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.6987</v>
+      </c>
+      <c r="B9" s="0">
+        <v>186.758</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.6483</v>
+      </c>
+      <c r="B10" s="0">
+        <v>184.9315</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.5989</v>
+      </c>
+      <c r="B11" s="0">
+        <v>184.9315</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5504</v>
+      </c>
+      <c r="B12" s="0">
+        <v>183.105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.4972</v>
+      </c>
+      <c r="B13" s="0">
+        <v>182.6484</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.4478</v>
+      </c>
+      <c r="B14" s="0">
+        <v>180.3653</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3983</v>
+      </c>
+      <c r="B15" s="0">
+        <v>178.9954</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3489</v>
+      </c>
+      <c r="B16" s="0">
+        <v>177.6256</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.2985</v>
+      </c>
+      <c r="B17" s="0">
+        <v>176.7123</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.2519</v>
+      </c>
+      <c r="B18" s="0">
+        <v>175.3425</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.1978</v>
+      </c>
+      <c r="B19" s="0">
+        <v>173.0594</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.1493</v>
+      </c>
+      <c r="B20" s="0">
+        <v>170.7763</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0979</v>
+      </c>
+      <c r="B21" s="0">
+        <v>167.5799</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0485</v>
+      </c>
+      <c r="B22" s="0">
+        <v>160.274</v>
       </c>
     </row>
     <row r="23"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 124 Steam and KOH Activated/Data124_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 124 Steam and KOH Activated/Data124_all_graphs_excel.xlsx
@@ -5,17 +5,17 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 KOH2  0&amp;1&amp;0&amp;325 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 KOH3  0&amp;1&amp;0&amp;325 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 KOHKN3  0&amp;1&amp;0&amp;325 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1 KOHKS3  0&amp;1&amp;0&amp;325 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 1 KOHS2  0&amp;1&amp;0&amp;325 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 1 KOHS3  0&amp;1&amp;0&amp;325 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 1_1 KKSN  0&amp;1&amp;0&amp;300 " sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 1_1 KN  0&amp;1&amp;0&amp;300 " sheetId="8" r:id="rId10"/>
-    <sheet name="Figure 1_1 KSN  0&amp;1&amp;0&amp;300 " sheetId="9" r:id="rId11"/>
-    <sheet name="Figure 1_1 YKN  0&amp;1&amp;0&amp;300 " sheetId="10" r:id="rId12"/>
-    <sheet name="Figure 1_1 YKSN  0&amp;1&amp;0&amp;300 " sheetId="11" r:id="rId13"/>
+    <sheet name="Figure 1_1 KKSN  0&amp;1&amp;0&amp;300 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1_1 KN  0&amp;1&amp;0&amp;300 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1_1 KSN  0&amp;1&amp;0&amp;300 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1_1 YKN  0&amp;1&amp;0&amp;300 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1_1 YKSN  0&amp;1&amp;0&amp;300 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 1_2 KOH2  0&amp;1&amp;0&amp;325 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 1_2 KOH3  0&amp;1&amp;0&amp;325 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 1_2 KOHKN3  0&amp;1&amp;0&amp;325 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 1_2 KOHKS3  0&amp;1&amp;0&amp;325 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 1_2 KOHS2  0&amp;1&amp;0&amp;325 " sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 1_2 KOHS3  0&amp;1&amp;0&amp;325 " sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -24,13 +24,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>KOH2</t>
+    <t>KKSN</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>KSN</t>
+  </si>
+  <si>
+    <t>YKN</t>
+  </si>
+  <si>
+    <t>YKSN</t>
+  </si>
+  <si>
+    <t>KOH2</t>
   </si>
   <si>
     <t>KOH3</t>
@@ -46,21 +61,6 @@
   </si>
   <si>
     <t>KOHS3</t>
-  </si>
-  <si>
-    <t>KKSN</t>
-  </si>
-  <si>
-    <t>KN</t>
-  </si>
-  <si>
-    <t>KSN</t>
-  </si>
-  <si>
-    <t>YKN</t>
-  </si>
-  <si>
-    <t>YKSN</t>
   </si>
 </sst>
 </file>
@@ -137,7 +137,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki KOH2 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki KKSN z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -196,12 +196,326 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 KOH2  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 KKSN  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 KOH2  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 KKSN  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki KOHS2 z wykresu 'Figure 1_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1_2 KOHS2  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1_2 KOHS2  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -418,7 +732,949 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki KOHS3 z wykresu 'Figure 1_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1_2 KOHS3  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1_2 KOHS3  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="325"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki KN z wykresu 'Figure 1_1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1_1 KN  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1_1 KN  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki KSN z wykresu 'Figure 1_1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1_1 KSN  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1_1 KSN  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -732,7 +1988,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1046,7 +2302,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1079,7 +2335,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki KOH3 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki KOH2 z wykresu 'Figure 1_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1138,1268 +2394,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 KOH3  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_2 KOH2  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 KOH3  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="325"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki KOHKN3 z wykresu 'Figure 1' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 1 KOHKN3  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 1 KOHKN3  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="325"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki KOHKS3 z wykresu 'Figure 1' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 1 KOHKS3  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 1 KOHKS3  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="325"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki KOHS2 z wykresu 'Figure 1' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 1 KOHS2  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 1 KOHS2  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="325"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki KOHS3 z wykresu 'Figure 1' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 1 KOHS3  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 1 KOHS3  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_2 KOH2  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2649,7 +2649,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki KKSN z wykresu 'Figure 1_1' </a:t>
+              <a:t>Izoterma adsorpcji probki KOH3 z wykresu 'Figure 1_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2708,12 +2708,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1_1 KKSN  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_2 KOH3  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1_1 KKSN  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_2 KOH3  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2797,7 +2797,7 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="300"/>
+          <c:max val="325"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2963,7 +2963,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki KN z wykresu 'Figure 1_1' </a:t>
+              <a:t>Izoterma adsorpcji probki KOHKN3 z wykresu 'Figure 1_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3022,12 +3022,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1_1 KN  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_2 KOHKN3  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1_1 KN  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_2 KOHKN3  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3111,7 +3111,7 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="300"/>
+          <c:max val="325"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3277,7 +3277,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki KSN z wykresu 'Figure 1_1' </a:t>
+              <a:t>Izoterma adsorpcji probki KOHKS3 z wykresu 'Figure 1_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3336,12 +3336,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1_1 KSN  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_2 KOHKS3  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1_1 KSN  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_2 KOHKS3  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3425,7 +3425,7 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="300"/>
+          <c:max val="325"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -10411,7 +10411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10432,165 +10432,109 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9946</v>
+        <v>0.0489</v>
       </c>
       <c r="B3" s="0">
-        <v>97.6467</v>
+        <v>235.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9486</v>
+        <v>0.0984</v>
       </c>
       <c r="B4" s="0">
-        <v>96.3894</v>
+        <v>248.0644</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8978</v>
+        <v>0.1513</v>
       </c>
       <c r="B5" s="0">
-        <v>95.9703</v>
+        <v>252.526</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8487</v>
+        <v>0.1986</v>
       </c>
       <c r="B6" s="0">
-        <v>95.5513</v>
+        <v>257.2243</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.797</v>
+        <v>0.2503</v>
       </c>
       <c r="B7" s="0">
-        <v>95.3417</v>
+        <v>259.968</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7502</v>
+        <v>0.2998</v>
       </c>
       <c r="B8" s="0">
-        <v>94.0845</v>
+        <v>262.9129</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7007</v>
+        <v>0.4</v>
       </c>
       <c r="B9" s="0">
-        <v>94.294</v>
+        <v>267.4935</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6525</v>
+        <v>0.5012</v>
       </c>
       <c r="B10" s="0">
-        <v>93.2463</v>
+        <v>272.2982</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5995</v>
+        <v>0.6003</v>
       </c>
       <c r="B11" s="0">
-        <v>92.8272</v>
+        <v>277.0268</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5505</v>
+        <v>0.6993</v>
       </c>
       <c r="B12" s="0">
-        <v>91.7795</v>
+        <v>284.5685</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4988</v>
+        <v>0.8017</v>
       </c>
       <c r="B13" s="0">
-        <v>91.57</v>
+        <v>294.5883</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4493</v>
+        <v>0.9007</v>
       </c>
       <c r="B14" s="0">
-        <v>90.7318</v>
+        <v>309.6874</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4002</v>
+        <v>0.9953</v>
       </c>
       <c r="B15" s="0">
-        <v>90.7318</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3503</v>
-      </c>
-      <c r="B16" s="0">
-        <v>88.2173</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.299</v>
-      </c>
-      <c r="B17" s="0">
-        <v>87.3791</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="B18" s="0">
-        <v>85.7028</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.1983</v>
-      </c>
-      <c r="B19" s="0">
-        <v>83.8169</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.1519</v>
-      </c>
-      <c r="B20" s="0">
-        <v>81.5119</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.0976</v>
-      </c>
-      <c r="B21" s="0">
-        <v>77.9497</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.0498</v>
-      </c>
-      <c r="B22" s="0">
-        <v>72.0825</v>
-      </c>
-    </row>
-    <row r="23"/>
+        <v>319.4222</v>
+      </c>
+    </row>
+    <row r="16"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -10599,7 +10543,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10620,165 +10564,157 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0478</v>
+        <v>0.9485</v>
       </c>
       <c r="B3" s="0">
-        <v>48.4652</v>
+        <v>159.2521</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0984</v>
+        <v>0.899</v>
       </c>
       <c r="B4" s="0">
-        <v>51.3896</v>
+        <v>157.7853</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.148</v>
+        <v>0.85</v>
       </c>
       <c r="B5" s="0">
-        <v>52.3227</v>
+        <v>156.9471</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1997</v>
+        <v>0.7978</v>
       </c>
       <c r="B6" s="0">
-        <v>53.3477</v>
+        <v>155.4803</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.2481</v>
+        <v>0.751</v>
       </c>
       <c r="B7" s="0">
-        <v>54.7757</v>
+        <v>154.2231</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.2976</v>
+        <v>0.6997</v>
       </c>
       <c r="B8" s="0">
-        <v>55.6222</v>
+        <v>152.9658</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.3483</v>
+        <v>0.6494</v>
       </c>
       <c r="B9" s="0">
-        <v>55.8018</v>
+        <v>151.9181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.3978</v>
+        <v>0.6012</v>
       </c>
       <c r="B10" s="0">
-        <v>56.084</v>
+        <v>151.2895</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.4495</v>
+        <v>0.5486</v>
       </c>
       <c r="B11" s="0">
-        <v>57.171</v>
+        <v>149.6132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.4979</v>
+        <v>0.5005</v>
       </c>
       <c r="B12" s="0">
-        <v>57.7097</v>
+        <v>148.775</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5474</v>
+        <v>0.4505</v>
       </c>
       <c r="B13" s="0">
-        <v>58.5124</v>
+        <v>147.5177</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5981</v>
+        <v>0.4006</v>
       </c>
       <c r="B14" s="0">
-        <v>58.1618</v>
+        <v>145.2128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.6476</v>
+        <v>0.3524</v>
       </c>
       <c r="B15" s="0">
-        <v>59.4604</v>
+        <v>143.9555</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.6982</v>
+        <v>0.2999</v>
       </c>
       <c r="B16" s="0">
-        <v>59.034</v>
+        <v>141.8601</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.7477</v>
+        <v>0.2512</v>
       </c>
       <c r="B17" s="0">
-        <v>59.3931</v>
+        <v>139.5551</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.7984</v>
+        <v>0.1991</v>
       </c>
       <c r="B18" s="0">
-        <v>60.7014</v>
+        <v>136.6215</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.8479</v>
+        <v>0.1501</v>
       </c>
       <c r="B19" s="0">
-        <v>60.9643</v>
+        <v>132.2211</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.8985</v>
+        <v>0.0984</v>
       </c>
       <c r="B20" s="0">
-        <v>62.008</v>
+        <v>126.354</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.948</v>
+        <v>0.0493</v>
       </c>
       <c r="B21" s="0">
-        <v>62.8562</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.9942</v>
-      </c>
-      <c r="B22" s="0">
-        <v>65.0879</v>
-      </c>
-    </row>
-    <row r="23"/>
+        <v>116.9246</v>
+      </c>
+    </row>
+    <row r="22"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -10808,162 +10744,162 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0494</v>
+        <v>0.9927</v>
       </c>
       <c r="B3" s="0">
-        <v>65.7534</v>
+        <v>169.3101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0989</v>
+        <v>0.9467</v>
       </c>
       <c r="B4" s="0">
-        <v>70.3196</v>
+        <v>165.1193</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.153</v>
+        <v>0.899</v>
       </c>
       <c r="B5" s="0">
-        <v>73.0594</v>
+        <v>163.4429</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.2006</v>
+        <v>0.8491</v>
       </c>
       <c r="B6" s="0">
-        <v>74.4292</v>
+        <v>161.9761</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.25</v>
+        <v>0.7956</v>
       </c>
       <c r="B7" s="0">
-        <v>76.7123</v>
+        <v>161.138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.3013</v>
+        <v>0.7483</v>
       </c>
       <c r="B8" s="0">
-        <v>77.6256</v>
+        <v>159.6712</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.3498</v>
+        <v>0.6971</v>
       </c>
       <c r="B9" s="0">
-        <v>78.5388</v>
+        <v>158.4139</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.3993</v>
+        <v>0.6547</v>
       </c>
       <c r="B10" s="0">
-        <v>79.4521</v>
+        <v>157.3662</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.4552</v>
+        <v>0.5994</v>
       </c>
       <c r="B11" s="0">
-        <v>79.9087</v>
+        <v>156.3185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5037</v>
+        <v>0.5477</v>
       </c>
       <c r="B12" s="0">
-        <v>81.7352</v>
+        <v>155.2708</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5522</v>
+        <v>0.4991</v>
       </c>
       <c r="B13" s="0">
-        <v>82.6484</v>
+        <v>154.0135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.6045</v>
+        <v>0.4492</v>
       </c>
       <c r="B14" s="0">
-        <v>84.4749</v>
+        <v>152.7563</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.6493</v>
+        <v>0.4006</v>
       </c>
       <c r="B15" s="0">
-        <v>85.8447</v>
+        <v>151.499</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.6978</v>
+        <v>0.3507</v>
       </c>
       <c r="B16" s="0">
-        <v>86.3014</v>
+        <v>150.0322</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.7556</v>
+        <v>0.2985</v>
       </c>
       <c r="B17" s="0">
-        <v>86.3014</v>
+        <v>148.1464</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.8041</v>
+        <v>0.2504</v>
       </c>
       <c r="B18" s="0">
-        <v>89.0411</v>
+        <v>146.8891</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.8479</v>
+        <v>0.1973</v>
       </c>
       <c r="B19" s="0">
-        <v>89.4977</v>
+        <v>143.3269</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.9049</v>
+        <v>0.1496</v>
       </c>
       <c r="B20" s="0">
-        <v>89.9543</v>
+        <v>139.7647</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.9524</v>
+        <v>0.0966</v>
       </c>
       <c r="B21" s="0">
-        <v>91.3242</v>
+        <v>134.3166</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.9953</v>
+        <v>0.0467</v>
       </c>
       <c r="B22" s="0">
-        <v>93.6073</v>
+        <v>124.6776</v>
       </c>
     </row>
     <row r="23"/>
@@ -10996,162 +10932,162 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9954</v>
+        <v>0.0504</v>
       </c>
       <c r="B3" s="0">
-        <v>109.381</v>
+        <v>70.7763</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9561</v>
+        <v>0.0989</v>
       </c>
       <c r="B4" s="0">
-        <v>108.5429</v>
+        <v>75.3425</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9018</v>
+        <v>0.1483</v>
       </c>
       <c r="B5" s="0">
-        <v>107.4952</v>
+        <v>77.6256</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8501</v>
+        <v>0.1996</v>
       </c>
       <c r="B6" s="0">
-        <v>106.0284</v>
+        <v>79.4521</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8006</v>
+        <v>0.25</v>
       </c>
       <c r="B7" s="0">
-        <v>106.2379</v>
+        <v>81.7352</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7493</v>
+        <v>0.3032</v>
       </c>
       <c r="B8" s="0">
-        <v>106.657</v>
+        <v>82.6484</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7025</v>
+        <v>0.3517</v>
       </c>
       <c r="B9" s="0">
-        <v>105.6093</v>
+        <v>83.5616</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6477</v>
+        <v>0.4021</v>
       </c>
       <c r="B10" s="0">
-        <v>105.1902</v>
+        <v>84.9315</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5986</v>
+        <v>0.4496</v>
       </c>
       <c r="B11" s="0">
-        <v>104.1425</v>
+        <v>86.758</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5487</v>
+        <v>0.5</v>
       </c>
       <c r="B12" s="0">
-        <v>104.352</v>
+        <v>87.6712</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.501</v>
+        <v>0.5504</v>
       </c>
       <c r="B13" s="0">
-        <v>104.352</v>
+        <v>87.2146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4501</v>
+        <v>0.6007</v>
       </c>
       <c r="B14" s="0">
-        <v>103.3043</v>
+        <v>89.0411</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4015</v>
+        <v>0.6521</v>
       </c>
       <c r="B15" s="0">
-        <v>102.6757</v>
+        <v>89.4977</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3494</v>
+        <v>0.7024</v>
       </c>
       <c r="B16" s="0">
-        <v>101.8375</v>
+        <v>91.3242</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3003</v>
+        <v>0.7519</v>
       </c>
       <c r="B17" s="0">
-        <v>100.5803</v>
+        <v>92.2374</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2513</v>
+        <v>0.805</v>
       </c>
       <c r="B18" s="0">
-        <v>99.9516</v>
+        <v>94.0639</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1992</v>
+        <v>0.8517</v>
       </c>
       <c r="B19" s="0">
-        <v>98.0658</v>
+        <v>94.0639</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1506</v>
+        <v>0.9002</v>
       </c>
       <c r="B20" s="0">
-        <v>97.0181</v>
+        <v>95.8904</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1006</v>
+        <v>0.9534</v>
       </c>
       <c r="B21" s="0">
-        <v>94.7131</v>
+        <v>95.8904</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0498</v>
+        <v>0.9953</v>
       </c>
       <c r="B22" s="0">
-        <v>90.5222</v>
+        <v>99.5434</v>
       </c>
     </row>
     <row r="23"/>
@@ -11163,7 +11099,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11184,109 +11120,165 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9015</v>
+        <v>0.9944</v>
       </c>
       <c r="B3" s="0">
-        <v>296.7118</v>
+        <v>205.0228</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.8012</v>
+        <v>0.9487</v>
       </c>
       <c r="B4" s="0">
-        <v>295.245</v>
+        <v>191.3242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.6996</v>
+        <v>0.8974</v>
       </c>
       <c r="B5" s="0">
-        <v>295.0355</v>
+        <v>189.9543</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.5997</v>
+        <v>0.847</v>
       </c>
       <c r="B6" s="0">
-        <v>292.3114</v>
+        <v>188.5845</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.5025</v>
+        <v>0.7976</v>
       </c>
       <c r="B7" s="0">
-        <v>290.8446</v>
+        <v>189.4977</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.4022</v>
+        <v>0.7491</v>
       </c>
       <c r="B8" s="0">
-        <v>288.5397</v>
+        <v>187.2146</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.301</v>
+        <v>0.6987</v>
       </c>
       <c r="B9" s="0">
-        <v>286.8633</v>
+        <v>186.758</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2502</v>
+        <v>0.6483</v>
       </c>
       <c r="B10" s="0">
-        <v>284.7679</v>
+        <v>184.9315</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1998</v>
+        <v>0.5989</v>
       </c>
       <c r="B11" s="0">
-        <v>283.0916</v>
+        <v>184.9315</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1494</v>
+        <v>0.5504</v>
       </c>
       <c r="B12" s="0">
-        <v>280.577</v>
+        <v>183.105</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1035</v>
+        <v>0.4972</v>
       </c>
       <c r="B13" s="0">
-        <v>275.7576</v>
+        <v>182.6484</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0783</v>
+        <v>0.4478</v>
       </c>
       <c r="B14" s="0">
-        <v>276.5957</v>
+        <v>180.3653</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0487</v>
+        <v>0.3983</v>
       </c>
       <c r="B15" s="0">
-        <v>273.2431</v>
-      </c>
-    </row>
-    <row r="16"/>
+        <v>178.9954</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3489</v>
+      </c>
+      <c r="B16" s="0">
+        <v>177.6256</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.2985</v>
+      </c>
+      <c r="B17" s="0">
+        <v>176.7123</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.2519</v>
+      </c>
+      <c r="B18" s="0">
+        <v>175.3425</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.1978</v>
+      </c>
+      <c r="B19" s="0">
+        <v>173.0594</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.1493</v>
+      </c>
+      <c r="B20" s="0">
+        <v>170.7763</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0979</v>
+      </c>
+      <c r="B21" s="0">
+        <v>167.5799</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0485</v>
+      </c>
+      <c r="B22" s="0">
+        <v>160.274</v>
+      </c>
+    </row>
+    <row r="23"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -11316,162 +11308,162 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9953</v>
+        <v>0.0478</v>
       </c>
       <c r="B3" s="0">
-        <v>200.951</v>
+        <v>48.4652</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9489</v>
+        <v>0.0984</v>
       </c>
       <c r="B4" s="0">
-        <v>198.8556</v>
+        <v>51.3896</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9012</v>
+        <v>0.148</v>
       </c>
       <c r="B5" s="0">
-        <v>196.9697</v>
+        <v>52.3227</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8495</v>
+        <v>0.1997</v>
       </c>
       <c r="B6" s="0">
-        <v>196.9697</v>
+        <v>53.3477</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7996</v>
+        <v>0.2481</v>
       </c>
       <c r="B7" s="0">
-        <v>196.5506</v>
+        <v>54.7757</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7492</v>
+        <v>0.2976</v>
       </c>
       <c r="B8" s="0">
-        <v>196.1315</v>
+        <v>55.6222</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.701</v>
+        <v>0.3483</v>
       </c>
       <c r="B9" s="0">
-        <v>195.0838</v>
+        <v>55.8018</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6524</v>
+        <v>0.3978</v>
       </c>
       <c r="B10" s="0">
-        <v>194.0361</v>
+        <v>56.084</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6034</v>
+        <v>0.4495</v>
       </c>
       <c r="B11" s="0">
-        <v>192.7789</v>
+        <v>57.171</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5486</v>
+        <v>0.4979</v>
       </c>
       <c r="B12" s="0">
-        <v>191.5216</v>
+        <v>57.7097</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4995</v>
+        <v>0.5474</v>
       </c>
       <c r="B13" s="0">
-        <v>190.2643</v>
+        <v>58.5124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.45</v>
+        <v>0.5981</v>
       </c>
       <c r="B14" s="0">
-        <v>189.0071</v>
+        <v>58.1618</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4005</v>
+        <v>0.6476</v>
       </c>
       <c r="B15" s="0">
-        <v>187.9594</v>
+        <v>59.4604</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3493</v>
+        <v>0.6982</v>
       </c>
       <c r="B16" s="0">
-        <v>186.9117</v>
+        <v>59.034</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2976</v>
+        <v>0.7477</v>
       </c>
       <c r="B17" s="0">
-        <v>184.1876</v>
+        <v>59.3931</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2485</v>
+        <v>0.7984</v>
       </c>
       <c r="B18" s="0">
-        <v>182.3017</v>
+        <v>60.7014</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2008</v>
+        <v>0.8479</v>
       </c>
       <c r="B19" s="0">
-        <v>179.9968</v>
+        <v>60.9643</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.15</v>
+        <v>0.8985</v>
       </c>
       <c r="B20" s="0">
-        <v>175.5964</v>
+        <v>62.008</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.101</v>
+        <v>0.948</v>
       </c>
       <c r="B21" s="0">
-        <v>169.9387</v>
+        <v>62.8562</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0479</v>
+        <v>0.9942</v>
       </c>
       <c r="B22" s="0">
-        <v>159.2521</v>
+        <v>65.0879</v>
       </c>
     </row>
     <row r="23"/>
@@ -11483,7 +11475,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11504,157 +11496,165 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9485</v>
+        <v>0.0494</v>
       </c>
       <c r="B3" s="0">
-        <v>159.2521</v>
+        <v>65.7534</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.899</v>
+        <v>0.0989</v>
       </c>
       <c r="B4" s="0">
-        <v>157.7853</v>
+        <v>70.3196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.85</v>
+        <v>0.153</v>
       </c>
       <c r="B5" s="0">
-        <v>156.9471</v>
+        <v>73.0594</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.7978</v>
+        <v>0.2006</v>
       </c>
       <c r="B6" s="0">
-        <v>155.4803</v>
+        <v>74.4292</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.751</v>
+        <v>0.25</v>
       </c>
       <c r="B7" s="0">
-        <v>154.2231</v>
+        <v>76.7123</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.6997</v>
+        <v>0.3013</v>
       </c>
       <c r="B8" s="0">
-        <v>152.9658</v>
+        <v>77.6256</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6494</v>
+        <v>0.3498</v>
       </c>
       <c r="B9" s="0">
-        <v>151.9181</v>
+        <v>78.5388</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6012</v>
+        <v>0.3993</v>
       </c>
       <c r="B10" s="0">
-        <v>151.2895</v>
+        <v>79.4521</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5486</v>
+        <v>0.4552</v>
       </c>
       <c r="B11" s="0">
-        <v>149.6132</v>
+        <v>79.9087</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5005</v>
+        <v>0.5037</v>
       </c>
       <c r="B12" s="0">
-        <v>148.775</v>
+        <v>81.7352</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4505</v>
+        <v>0.5522</v>
       </c>
       <c r="B13" s="0">
-        <v>147.5177</v>
+        <v>82.6484</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4006</v>
+        <v>0.6045</v>
       </c>
       <c r="B14" s="0">
-        <v>145.2128</v>
+        <v>84.4749</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3524</v>
+        <v>0.6493</v>
       </c>
       <c r="B15" s="0">
-        <v>143.9555</v>
+        <v>85.8447</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2999</v>
+        <v>0.6978</v>
       </c>
       <c r="B16" s="0">
-        <v>141.8601</v>
+        <v>86.3014</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2512</v>
+        <v>0.7556</v>
       </c>
       <c r="B17" s="0">
-        <v>139.5551</v>
+        <v>86.3014</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.1991</v>
+        <v>0.8041</v>
       </c>
       <c r="B18" s="0">
-        <v>136.6215</v>
+        <v>89.0411</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1501</v>
+        <v>0.8479</v>
       </c>
       <c r="B19" s="0">
-        <v>132.2211</v>
+        <v>89.4977</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.0984</v>
+        <v>0.9049</v>
       </c>
       <c r="B20" s="0">
-        <v>126.354</v>
+        <v>89.9543</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.0493</v>
+        <v>0.9524</v>
       </c>
       <c r="B21" s="0">
-        <v>116.9246</v>
-      </c>
-    </row>
-    <row r="22"/>
+        <v>91.3242</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.9953</v>
+      </c>
+      <c r="B22" s="0">
+        <v>93.6073</v>
+      </c>
+    </row>
+    <row r="23"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -11684,162 +11684,162 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9927</v>
+        <v>0.9946</v>
       </c>
       <c r="B3" s="0">
-        <v>169.3101</v>
+        <v>97.6467</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9467</v>
+        <v>0.9486</v>
       </c>
       <c r="B4" s="0">
-        <v>165.1193</v>
+        <v>96.3894</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.899</v>
+        <v>0.8978</v>
       </c>
       <c r="B5" s="0">
-        <v>163.4429</v>
+        <v>95.9703</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8491</v>
+        <v>0.8487</v>
       </c>
       <c r="B6" s="0">
-        <v>161.9761</v>
+        <v>95.5513</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7956</v>
+        <v>0.797</v>
       </c>
       <c r="B7" s="0">
-        <v>161.138</v>
+        <v>95.3417</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7483</v>
+        <v>0.7502</v>
       </c>
       <c r="B8" s="0">
-        <v>159.6712</v>
+        <v>94.0845</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6971</v>
+        <v>0.7007</v>
       </c>
       <c r="B9" s="0">
-        <v>158.4139</v>
+        <v>94.294</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6547</v>
+        <v>0.6525</v>
       </c>
       <c r="B10" s="0">
-        <v>157.3662</v>
+        <v>93.2463</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5994</v>
+        <v>0.5995</v>
       </c>
       <c r="B11" s="0">
-        <v>156.3185</v>
+        <v>92.8272</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5477</v>
+        <v>0.5505</v>
       </c>
       <c r="B12" s="0">
-        <v>155.2708</v>
+        <v>91.7795</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4991</v>
+        <v>0.4988</v>
       </c>
       <c r="B13" s="0">
-        <v>154.0135</v>
+        <v>91.57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4492</v>
+        <v>0.4493</v>
       </c>
       <c r="B14" s="0">
-        <v>152.7563</v>
+        <v>90.7318</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4006</v>
+        <v>0.4002</v>
       </c>
       <c r="B15" s="0">
-        <v>151.499</v>
+        <v>90.7318</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3507</v>
+        <v>0.3503</v>
       </c>
       <c r="B16" s="0">
-        <v>150.0322</v>
+        <v>88.2173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2985</v>
+        <v>0.299</v>
       </c>
       <c r="B17" s="0">
-        <v>148.1464</v>
+        <v>87.3791</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2504</v>
+        <v>0.25</v>
       </c>
       <c r="B18" s="0">
-        <v>146.8891</v>
+        <v>85.7028</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1973</v>
+        <v>0.1983</v>
       </c>
       <c r="B19" s="0">
-        <v>143.3269</v>
+        <v>83.8169</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1496</v>
+        <v>0.1519</v>
       </c>
       <c r="B20" s="0">
-        <v>139.7647</v>
+        <v>81.5119</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.0966</v>
+        <v>0.0976</v>
       </c>
       <c r="B21" s="0">
-        <v>134.3166</v>
+        <v>77.9497</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0467</v>
+        <v>0.0498</v>
       </c>
       <c r="B22" s="0">
-        <v>124.6776</v>
+        <v>72.0825</v>
       </c>
     </row>
     <row r="23"/>
@@ -11851,6 +11851,194 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9954</v>
+      </c>
+      <c r="B3" s="0">
+        <v>109.381</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9561</v>
+      </c>
+      <c r="B4" s="0">
+        <v>108.5429</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9018</v>
+      </c>
+      <c r="B5" s="0">
+        <v>107.4952</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8501</v>
+      </c>
+      <c r="B6" s="0">
+        <v>106.0284</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8006</v>
+      </c>
+      <c r="B7" s="0">
+        <v>106.2379</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.7493</v>
+      </c>
+      <c r="B8" s="0">
+        <v>106.657</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7025</v>
+      </c>
+      <c r="B9" s="0">
+        <v>105.6093</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.6477</v>
+      </c>
+      <c r="B10" s="0">
+        <v>105.1902</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.5986</v>
+      </c>
+      <c r="B11" s="0">
+        <v>104.1425</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5487</v>
+      </c>
+      <c r="B12" s="0">
+        <v>104.352</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.501</v>
+      </c>
+      <c r="B13" s="0">
+        <v>104.352</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.4501</v>
+      </c>
+      <c r="B14" s="0">
+        <v>103.3043</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4015</v>
+      </c>
+      <c r="B15" s="0">
+        <v>102.6757</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3494</v>
+      </c>
+      <c r="B16" s="0">
+        <v>101.8375</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3003</v>
+      </c>
+      <c r="B17" s="0">
+        <v>100.5803</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.2513</v>
+      </c>
+      <c r="B18" s="0">
+        <v>99.9516</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.1992</v>
+      </c>
+      <c r="B19" s="0">
+        <v>98.0658</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.1506</v>
+      </c>
+      <c r="B20" s="0">
+        <v>97.0181</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.1006</v>
+      </c>
+      <c r="B21" s="0">
+        <v>94.7131</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0498</v>
+      </c>
+      <c r="B22" s="0">
+        <v>90.5222</v>
+      </c>
+    </row>
+    <row r="23"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11859,7 +12047,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -11872,297 +12060,109 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0489</v>
+        <v>0.9015</v>
       </c>
       <c r="B3" s="0">
-        <v>235.17</v>
+        <v>296.7118</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0984</v>
+        <v>0.8012</v>
       </c>
       <c r="B4" s="0">
-        <v>248.0644</v>
+        <v>295.245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1513</v>
+        <v>0.6996</v>
       </c>
       <c r="B5" s="0">
-        <v>252.526</v>
+        <v>295.0355</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1986</v>
+        <v>0.5997</v>
       </c>
       <c r="B6" s="0">
-        <v>257.2243</v>
+        <v>292.3114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.2503</v>
+        <v>0.5025</v>
       </c>
       <c r="B7" s="0">
-        <v>259.968</v>
+        <v>290.8446</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.2998</v>
+        <v>0.4022</v>
       </c>
       <c r="B8" s="0">
-        <v>262.9129</v>
+        <v>288.5397</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.4</v>
+        <v>0.301</v>
       </c>
       <c r="B9" s="0">
-        <v>267.4935</v>
+        <v>286.8633</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.5012</v>
+        <v>0.2502</v>
       </c>
       <c r="B10" s="0">
-        <v>272.2982</v>
+        <v>284.7679</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6003</v>
+        <v>0.1998</v>
       </c>
       <c r="B11" s="0">
-        <v>277.0268</v>
+        <v>283.0916</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.6993</v>
+        <v>0.1494</v>
       </c>
       <c r="B12" s="0">
-        <v>284.5685</v>
+        <v>280.577</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.8017</v>
+        <v>0.1035</v>
       </c>
       <c r="B13" s="0">
-        <v>294.5883</v>
+        <v>275.7576</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.9007</v>
+        <v>0.0783</v>
       </c>
       <c r="B14" s="0">
-        <v>309.6874</v>
+        <v>276.5957</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.9953</v>
+        <v>0.0487</v>
       </c>
       <c r="B15" s="0">
-        <v>319.4222</v>
+        <v>273.2431</v>
       </c>
     </row>
     <row r="16"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0504</v>
-      </c>
-      <c r="B3" s="0">
-        <v>70.7763</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0989</v>
-      </c>
-      <c r="B4" s="0">
-        <v>75.3425</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.1483</v>
-      </c>
-      <c r="B5" s="0">
-        <v>77.6256</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.1996</v>
-      </c>
-      <c r="B6" s="0">
-        <v>79.4521</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="B7" s="0">
-        <v>81.7352</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.3032</v>
-      </c>
-      <c r="B8" s="0">
-        <v>82.6484</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.3517</v>
-      </c>
-      <c r="B9" s="0">
-        <v>83.5616</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.4021</v>
-      </c>
-      <c r="B10" s="0">
-        <v>84.9315</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.4496</v>
-      </c>
-      <c r="B11" s="0">
-        <v>86.758</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B12" s="0">
-        <v>87.6712</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.5504</v>
-      </c>
-      <c r="B13" s="0">
-        <v>87.2146</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.6007</v>
-      </c>
-      <c r="B14" s="0">
-        <v>89.0411</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.6521</v>
-      </c>
-      <c r="B15" s="0">
-        <v>89.4977</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.7024</v>
-      </c>
-      <c r="B16" s="0">
-        <v>91.3242</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.7519</v>
-      </c>
-      <c r="B17" s="0">
-        <v>92.2374</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.805</v>
-      </c>
-      <c r="B18" s="0">
-        <v>94.0639</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.8517</v>
-      </c>
-      <c r="B19" s="0">
-        <v>94.0639</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.9002</v>
-      </c>
-      <c r="B20" s="0">
-        <v>95.8904</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.9534</v>
-      </c>
-      <c r="B21" s="0">
-        <v>95.8904</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.9953</v>
-      </c>
-      <c r="B22" s="0">
-        <v>99.5434</v>
-      </c>
-    </row>
-    <row r="23"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -12192,162 +12192,162 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9944</v>
+        <v>0.9953</v>
       </c>
       <c r="B3" s="0">
-        <v>205.0228</v>
+        <v>200.951</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9487</v>
+        <v>0.9489</v>
       </c>
       <c r="B4" s="0">
-        <v>191.3242</v>
+        <v>198.8556</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8974</v>
+        <v>0.9012</v>
       </c>
       <c r="B5" s="0">
-        <v>189.9543</v>
+        <v>196.9697</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.847</v>
+        <v>0.8495</v>
       </c>
       <c r="B6" s="0">
-        <v>188.5845</v>
+        <v>196.9697</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7976</v>
+        <v>0.7996</v>
       </c>
       <c r="B7" s="0">
-        <v>189.4977</v>
+        <v>196.5506</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7491</v>
+        <v>0.7492</v>
       </c>
       <c r="B8" s="0">
-        <v>187.2146</v>
+        <v>196.1315</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6987</v>
+        <v>0.701</v>
       </c>
       <c r="B9" s="0">
-        <v>186.758</v>
+        <v>195.0838</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6483</v>
+        <v>0.6524</v>
       </c>
       <c r="B10" s="0">
-        <v>184.9315</v>
+        <v>194.0361</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5989</v>
+        <v>0.6034</v>
       </c>
       <c r="B11" s="0">
-        <v>184.9315</v>
+        <v>192.7789</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5504</v>
+        <v>0.5486</v>
       </c>
       <c r="B12" s="0">
-        <v>183.105</v>
+        <v>191.5216</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4972</v>
+        <v>0.4995</v>
       </c>
       <c r="B13" s="0">
-        <v>182.6484</v>
+        <v>190.2643</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4478</v>
+        <v>0.45</v>
       </c>
       <c r="B14" s="0">
-        <v>180.3653</v>
+        <v>189.0071</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3983</v>
+        <v>0.4005</v>
       </c>
       <c r="B15" s="0">
-        <v>178.9954</v>
+        <v>187.9594</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3489</v>
+        <v>0.3493</v>
       </c>
       <c r="B16" s="0">
-        <v>177.6256</v>
+        <v>186.9117</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2985</v>
+        <v>0.2976</v>
       </c>
       <c r="B17" s="0">
-        <v>176.7123</v>
+        <v>184.1876</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2519</v>
+        <v>0.2485</v>
       </c>
       <c r="B18" s="0">
-        <v>175.3425</v>
+        <v>182.3017</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1978</v>
+        <v>0.2008</v>
       </c>
       <c r="B19" s="0">
-        <v>173.0594</v>
+        <v>179.9968</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1493</v>
+        <v>0.15</v>
       </c>
       <c r="B20" s="0">
-        <v>170.7763</v>
+        <v>175.5964</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.0979</v>
+        <v>0.101</v>
       </c>
       <c r="B21" s="0">
-        <v>167.5799</v>
+        <v>169.9387</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0485</v>
+        <v>0.0479</v>
       </c>
       <c r="B22" s="0">
-        <v>160.274</v>
+        <v>159.2521</v>
       </c>
     </row>
     <row r="23"/>
